--- a/output/fit_clients/fit_round_160.xlsx
+++ b/output/fit_clients/fit_round_160.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1997415343.718628</v>
+        <v>1576170681.470278</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08072539262260794</v>
+        <v>0.1147869635655643</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03516160853734832</v>
+        <v>0.0423937874434341</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>998707667.1223457</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2202020054.001487</v>
+        <v>2092708176.257658</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1643341956239839</v>
+        <v>0.140396573075682</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04772576570927157</v>
+        <v>0.03478793407430397</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1101010098.310468</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4140679405.504602</v>
+        <v>4819224259.490569</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1022488096742607</v>
+        <v>0.1344618632917289</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03515068228743094</v>
+        <v>0.03565131480083361</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>58</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2070339726.859166</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2570411803.845169</v>
+        <v>3460519692.999755</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07284025834786112</v>
+        <v>0.09959745335366757</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03333991228643167</v>
+        <v>0.03862718218807053</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1285206000.128119</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1873000850.907986</v>
+        <v>2288403581.219308</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1134691627192231</v>
+        <v>0.1068051828909887</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05481623016531575</v>
+        <v>0.04861300783107052</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>936500468.7642415</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3022227150.412457</v>
+        <v>2845281175.689831</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09331742730123727</v>
+        <v>0.09587149725973804</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03584252950870172</v>
+        <v>0.03471721944949061</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>48</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1511113537.976382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2552446869.061459</v>
+        <v>3875465482.358966</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1982384518949734</v>
+        <v>0.18516057851065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02409219440257782</v>
+        <v>0.02145550706986465</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>51</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1276223446.26475</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1590575830.619521</v>
+        <v>1599459234.80362</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1226118775002152</v>
+        <v>0.1210727737983299</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02868023907839146</v>
+        <v>0.03359180903355746</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>795287998.6772776</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4281422851.652233</v>
+        <v>4378973460.544336</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2166561774853175</v>
+        <v>0.1328468052290101</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04347003745865786</v>
+        <v>0.03401080344143976</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>67</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2140711469.490231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3836397385.220496</v>
+        <v>3427141855.388703</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1271893896648867</v>
+        <v>0.1461147652671335</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04803074779197831</v>
+        <v>0.0301030861460088</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>66</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1918198693.89393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2209591485.487026</v>
+        <v>3203395782.363276</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1706776106073273</v>
+        <v>0.1694691653774136</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04009866392332656</v>
+        <v>0.04939062311430309</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>56</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1104795688.353812</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4900252467.136672</v>
+        <v>4772072694.240566</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08736571842699811</v>
+        <v>0.08025478553592717</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03096472846351167</v>
+        <v>0.01978257852990972</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>54</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2450126242.739355</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3798943132.666831</v>
+        <v>2441691914.877458</v>
       </c>
       <c r="F14" t="n">
-        <v>0.151346611992114</v>
+        <v>0.1651705164303169</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02892805097003897</v>
+        <v>0.02687108109324388</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>51</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1899471542.871912</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1687999849.349833</v>
+        <v>1540429732.743462</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07077601703615359</v>
+        <v>0.0789897090863545</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04842598802625314</v>
+        <v>0.04420503826062</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>844000052.7657157</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2350415171.693507</v>
+        <v>2466959260.686088</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1153661703454408</v>
+        <v>0.1101109810111947</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04301116327322652</v>
+        <v>0.04252849949214751</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1175207629.993535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4159844333.61132</v>
+        <v>4844664878.035396</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1481897123423825</v>
+        <v>0.1114612828216619</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04801977067694332</v>
+        <v>0.03834102797299269</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>47</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2079922193.462435</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3675358550.030049</v>
+        <v>3157471135.11924</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1639225480437723</v>
+        <v>0.1179000058078277</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02301660283507262</v>
+        <v>0.02124529846469598</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>51</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1837679256.396279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1268248750.817988</v>
+        <v>1208172572.186482</v>
       </c>
       <c r="F19" t="n">
-        <v>0.131830950500531</v>
+        <v>0.1271601728396269</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02545596493956544</v>
+        <v>0.01764889331284852</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>634124469.9096438</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2366257409.626417</v>
+        <v>2325128400.52588</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1265604476749061</v>
+        <v>0.1253776814404119</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03104958775798004</v>
+        <v>0.02575905822351791</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>25</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1183128692.098662</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1701557065.473337</v>
+        <v>1769313220.146711</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07562170636506933</v>
+        <v>0.09091671482265783</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04294149104604058</v>
+        <v>0.03603840215437921</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>850778597.1723704</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3026402267.166634</v>
+        <v>3070553032.174437</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08938607028569739</v>
+        <v>0.08929791506560891</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04522628938589246</v>
+        <v>0.04444044634805777</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>45</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1513201193.50198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1160367613.460768</v>
+        <v>1326279943.068798</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1705499601962962</v>
+        <v>0.1699375789448778</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04706620016505108</v>
+        <v>0.0534870264750293</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>580183849.8587987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3588764548.743564</v>
+        <v>4011399682.539038</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09666193561314178</v>
+        <v>0.1013776361854113</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02307499301776381</v>
+        <v>0.03336771401231321</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>47</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1794382269.960948</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1355251448.19878</v>
+        <v>1327892568.979276</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0855424806956986</v>
+        <v>0.1050367306535882</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02037681100882656</v>
+        <v>0.02610672349930636</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>677625706.3273611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1435568759.422896</v>
+        <v>1276059261.4458</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09582996936530348</v>
+        <v>0.08216920897225562</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03828311378774776</v>
+        <v>0.03869408117889911</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>717784458.3790841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3677506155.60727</v>
+        <v>4550814969.27242</v>
       </c>
       <c r="F27" t="n">
-        <v>0.119666830787503</v>
+        <v>0.1095483737595661</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02637212480323338</v>
+        <v>0.0206829934435596</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>36</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1838753103.923843</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3524467955.174941</v>
+        <v>2803753333.750941</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1466182152021718</v>
+        <v>0.1424024905516155</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03908861540517424</v>
+        <v>0.04119402764505218</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>51</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1762234034.304727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4051822025.634435</v>
+        <v>3988454016.523715</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1481825027650688</v>
+        <v>0.1475270007195065</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03343481839474773</v>
+        <v>0.03419152109348035</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>71</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2025911026.046025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2030292122.437515</v>
+        <v>2385199650.197162</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0996557173602393</v>
+        <v>0.08678749171664571</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02438155955307772</v>
+        <v>0.0398886028242551</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1015146102.093969</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1288645282.465258</v>
+        <v>1099597811.744382</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09228076441941752</v>
+        <v>0.09232734646487643</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04348695977163586</v>
+        <v>0.03370782575935391</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>644322571.7990682</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1450408249.954236</v>
+        <v>1378513996.854651</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09887557663551302</v>
+        <v>0.09548586841255302</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03484974257095535</v>
+        <v>0.02422544890575984</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>725204183.031357</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2669421597.515271</v>
+        <v>1981359472.67182</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1458703118919276</v>
+        <v>0.170574557588966</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03710711355133536</v>
+        <v>0.03945742161893106</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>47</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1334710822.503369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1295590621.977231</v>
+        <v>971204395.8822783</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1052477742541493</v>
+        <v>0.0803303443863552</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02777002278592891</v>
+        <v>0.02147880887646382</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>647795300.3791672</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1164425604.184381</v>
+        <v>1228466468.067403</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07905904180333961</v>
+        <v>0.09852136492860267</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02829880823508315</v>
+        <v>0.03617111525334486</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>582212784.5890627</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2059586339.366479</v>
+        <v>2583623565.644954</v>
       </c>
       <c r="F36" t="n">
-        <v>0.163576110339111</v>
+        <v>0.109302786631837</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02027707116098707</v>
+        <v>0.02057747174223308</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>41</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1029793226.896932</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2595944330.137457</v>
+        <v>2139272987.362951</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1089812261045953</v>
+        <v>0.0741609815741034</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04033559392070546</v>
+        <v>0.02773133282744019</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>43</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1297972274.289256</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1914502565.443435</v>
+        <v>1770288312.989399</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07753285715564354</v>
+        <v>0.1036882576092043</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03816805657377906</v>
+        <v>0.03490442717565394</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>957251273.3946967</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2011074564.626594</v>
+        <v>2071154206.19105</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1232172271091865</v>
+        <v>0.1873216970870599</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02293763911072416</v>
+        <v>0.02912623051695275</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1005537275.138673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1457634277.684522</v>
+        <v>1613034307.753465</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1062430699549518</v>
+        <v>0.1138147852018163</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05059116410180747</v>
+        <v>0.05351875585059503</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>728817115.6091161</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2733816906.070033</v>
+        <v>1776213978.05028</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1527048729010996</v>
+        <v>0.1362582584789347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04510876737506403</v>
+        <v>0.04115620114301571</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>39</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1366908455.357991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2860115488.902507</v>
+        <v>3850241139.071792</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08311479033677859</v>
+        <v>0.08296457470915106</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0408792772592707</v>
+        <v>0.04576478840525525</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>53</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1430057695.241361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2051079562.679139</v>
+        <v>1864688639.923383</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1822201941251346</v>
+        <v>0.2010044428046014</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02011229582432842</v>
+        <v>0.02594322110001419</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>56</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1025539875.117684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2339415841.11002</v>
+        <v>1634855396.099897</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09651508961057625</v>
+        <v>0.08546628262716115</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02726697198020938</v>
+        <v>0.03522947278267079</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1169708094.581754</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1995906872.912397</v>
+        <v>1796304867.514883</v>
       </c>
       <c r="F45" t="n">
-        <v>0.17687094228288</v>
+        <v>0.1282743177902864</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05257395889912648</v>
+        <v>0.04522216121120601</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>997953426.8775777</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3939800744.321927</v>
+        <v>5363564660.828811</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1160117681916283</v>
+        <v>0.1431210754315934</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04371631375604337</v>
+        <v>0.05561967420495477</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>57</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1969900338.224963</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3156428290.63931</v>
+        <v>4191724834.709844</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1685134840758097</v>
+        <v>0.1637262427220706</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05102870150702613</v>
+        <v>0.03606462530900315</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>43</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1578214096.614591</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4732034649.802226</v>
+        <v>4564787625.526546</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08451364069787914</v>
+        <v>0.1088839636171764</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03030903038249402</v>
+        <v>0.0273786497507316</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2366017316.680958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1226855753.682694</v>
+        <v>1207202512.485076</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1193299827787454</v>
+        <v>0.1728563959195975</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02965312736140473</v>
+        <v>0.03773913275003096</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>613427951.3012519</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2979877920.502886</v>
+        <v>3628012958.548459</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1084696187059484</v>
+        <v>0.1515175879622385</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03221544859433878</v>
+        <v>0.04060205567643153</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>54</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1489939021.499048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1051314978.852389</v>
+        <v>1046788159.271862</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1386840302892803</v>
+        <v>0.135477581503637</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04842119800174731</v>
+        <v>0.05392206208672659</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>525657565.0501481</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3387942436.04988</v>
+        <v>4589802703.780692</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1359377434688469</v>
+        <v>0.0966087850717523</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04719586240998221</v>
+        <v>0.0427141064651694</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>66</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1693971310.501449</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3310916029.702152</v>
+        <v>2990703770.749495</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1234691773114852</v>
+        <v>0.1877260397885658</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03254417592377632</v>
+        <v>0.03031216486279846</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>46</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1655458025.751826</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4233907995.855597</v>
+        <v>4240618160.135713</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1628570113931554</v>
+        <v>0.146943674005977</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05262586754946828</v>
+        <v>0.04360643215735065</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2116954080.341407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4430859711.78301</v>
+        <v>3446879575.321675</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2196129094060104</v>
+        <v>0.1570057797808364</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03169595544095843</v>
+        <v>0.02163768254453234</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2215429849.764307</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1465038169.373601</v>
+        <v>1168956636.823692</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1306240412151489</v>
+        <v>0.1033742608537621</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05586299083384589</v>
+        <v>0.05194539981550376</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>732519132.0639837</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3372659727.810409</v>
+        <v>2915429832.451304</v>
       </c>
       <c r="F57" t="n">
-        <v>0.139657134837826</v>
+        <v>0.1381192927040735</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02492017547131252</v>
+        <v>0.02098529813282929</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>51</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1686329899.571907</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1735156352.894179</v>
+        <v>1590719982.66105</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1914720053878061</v>
+        <v>0.1518299026939932</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03822976971424415</v>
+        <v>0.02651242472212271</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>867578186.0847995</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4279225648.885639</v>
+        <v>4405047472.468308</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1270791195424764</v>
+        <v>0.1085586180003294</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03233847155866755</v>
+        <v>0.03557611575055473</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2139612786.894573</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3470787947.442821</v>
+        <v>3016688561.07625</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1479996740295271</v>
+        <v>0.1667809964459517</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02744520977935467</v>
+        <v>0.02574860494888744</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>51</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1735394093.422823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3028947783.013987</v>
+        <v>2196417395.467609</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1533414468217456</v>
+        <v>0.1465380691115692</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03226007016587699</v>
+        <v>0.02587911264325514</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>55</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1514473869.211893</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1804318214.014292</v>
+        <v>1742798657.210297</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1375961495078607</v>
+        <v>0.1306298006278959</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03026755656095697</v>
+        <v>0.04209528807941149</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>902159135.711198</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4678683937.596394</v>
+        <v>3920592856.379979</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09261390657429051</v>
+        <v>0.07035077185385297</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04286198761682412</v>
+        <v>0.03808796596712555</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>46</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2339342000.851283</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3374552584.321377</v>
+        <v>5017695101.412479</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1175706660619954</v>
+        <v>0.1875834260890149</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02825009807275349</v>
+        <v>0.03241817137502493</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>50</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1687276283.998294</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5263097795.266042</v>
+        <v>3785799894.773667</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1336641138470326</v>
+        <v>0.1084163365186662</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0267027476544579</v>
+        <v>0.02933087245064201</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>58</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2631548840.816429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5261586921.466157</v>
+        <v>5563925890.617961</v>
       </c>
       <c r="F66" t="n">
-        <v>0.16157397590449</v>
+        <v>0.1261388146512015</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03917258205682219</v>
+        <v>0.04666813412471701</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>46</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2630793501.877039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2506373718.724697</v>
+        <v>3312776642.071438</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0941147747361753</v>
+        <v>0.08275509517946433</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03550576713955075</v>
+        <v>0.03198376224555715</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>52</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1253186919.41498</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4241574492.425663</v>
+        <v>4461817508.282643</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1216496955055727</v>
+        <v>0.1474703924673313</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04738712487085505</v>
+        <v>0.04861606656018899</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>51</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2120787256.605276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1826672461.05702</v>
+        <v>1602644986.00791</v>
       </c>
       <c r="F69" t="n">
-        <v>0.130507068422566</v>
+        <v>0.1792658609120624</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04724881883442088</v>
+        <v>0.05673042859049428</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>913336213.0687654</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2705095995.524253</v>
+        <v>3126085033.538342</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0749872766471415</v>
+        <v>0.08836570765229501</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03027908442568745</v>
+        <v>0.03624147168143207</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>46</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1352547955.537169</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3448359460.329958</v>
+        <v>4167901896.682279</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1768568784314757</v>
+        <v>0.131382060219293</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03353620634797713</v>
+        <v>0.02943549698550937</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>58</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1724179719.99551</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1871323337.198985</v>
+        <v>1520585226.894382</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09940579742320248</v>
+        <v>0.08538396776091886</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05293889049651508</v>
+        <v>0.04681808359039973</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>935661635.6613612</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2857567603.900784</v>
+        <v>2953668310.094389</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09809779871661627</v>
+        <v>0.104131414011443</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0490914203105102</v>
+        <v>0.03474424760811998</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>61</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1428783810.947309</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2905783750.600287</v>
+        <v>3065952442.719719</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1408708773480985</v>
+        <v>0.1700200537614601</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02457622929680689</v>
+        <v>0.02464669606916553</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>54</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1452891948.804687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2124060332.648617</v>
+        <v>2423584220.637874</v>
       </c>
       <c r="F75" t="n">
-        <v>0.149963852096508</v>
+        <v>0.1289047140913516</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02300585626464898</v>
+        <v>0.0337492340150455</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1062030118.894395</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3873726188.651196</v>
+        <v>5309750945.122804</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1054612528278017</v>
+        <v>0.08656119068298367</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03083236016342044</v>
+        <v>0.02393909665067104</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1936863073.681074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1511521907.534321</v>
+        <v>2271610734.493226</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1849125230614386</v>
+        <v>0.1753006078309385</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02556109459367095</v>
+        <v>0.02149355844854486</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>755760943.0871238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3929803009.173742</v>
+        <v>4449441986.904869</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09204388448452766</v>
+        <v>0.08728080558686781</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05009372407922192</v>
+        <v>0.04176428162036866</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>55</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1964901475.281119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1846335454.091611</v>
+        <v>1833090173.420872</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1594257623142006</v>
+        <v>0.1151750747340165</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03634046736223771</v>
+        <v>0.03906573802087215</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>923167821.8149219</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4651478240.768604</v>
+        <v>4785963897.170527</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1012659157240383</v>
+        <v>0.08174040217071078</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03659602866011953</v>
+        <v>0.02684857655126464</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>33</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2325739152.212529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3244009983.411841</v>
+        <v>4080604691.548777</v>
       </c>
       <c r="F81" t="n">
-        <v>0.10207673796876</v>
+        <v>0.1342714194987159</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02003677452123212</v>
+        <v>0.02854363099294668</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1622004926.82157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3708061642.133826</v>
+        <v>5450614492.970435</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1956654482701581</v>
+        <v>0.1871017665356239</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0189839316662299</v>
+        <v>0.02018559592873491</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>57</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1854030877.096205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1721696767.104172</v>
+        <v>1937194789.777351</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1380875582714427</v>
+        <v>0.1404026019506021</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04342977884928059</v>
+        <v>0.03473921557575179</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>860848334.1876608</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2295358709.13104</v>
+        <v>1597493921.899871</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0979665289831386</v>
+        <v>0.09701029232958334</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04648719804991428</v>
+        <v>0.04931846649753353</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1147679316.315006</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3158371107.934041</v>
+        <v>2364978671.002347</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1805216486776758</v>
+        <v>0.147397510431475</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0515158172645409</v>
+        <v>0.03485164164864119</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>60</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1579185631.584346</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1838831722.329806</v>
+        <v>2521979720.392467</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1436704280987569</v>
+        <v>0.1327735252322521</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02362570909861552</v>
+        <v>0.02376130587382043</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>20</v>
-      </c>
-      <c r="J86" t="n">
-        <v>919415866.3487111</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>908447825.5726975</v>
+        <v>1500546602.484908</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1741923836317492</v>
+        <v>0.1487453218488377</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04254533195032111</v>
+        <v>0.03381696430007187</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>454223893.617157</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3628333113.842826</v>
+        <v>3524257773.831532</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1535535795752281</v>
+        <v>0.1434620003384905</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03433324565263295</v>
+        <v>0.02801192294406895</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>64</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1814166649.414811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2697961959.578417</v>
+        <v>2970013608.207947</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1384236673916587</v>
+        <v>0.1423967259864555</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03736126118340095</v>
+        <v>0.03105865215598662</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>54</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1348981040.000661</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1805061559.082026</v>
+        <v>2088092565.47596</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08672007793938208</v>
+        <v>0.09982976429478169</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04895344004713413</v>
+        <v>0.04785391377851826</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>902530814.1003907</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1443558463.883245</v>
+        <v>1679440730.823771</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1179191619798989</v>
+        <v>0.1322425817262853</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05148607403199775</v>
+        <v>0.03859786402572853</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>721779278.3539965</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2543543512.81683</v>
+        <v>2730905365.278147</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1092559710077646</v>
+        <v>0.07505861362348358</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03559146295990758</v>
+        <v>0.04682664159846391</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>39</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1271771743.645516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4795068680.007172</v>
+        <v>3749302361.382893</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1383517441774454</v>
+        <v>0.1100066223244495</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03519578249556666</v>
+        <v>0.0384474753147455</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>49</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2397534289.177713</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1816649584.061687</v>
+        <v>1774057337.716903</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1595948490715664</v>
+        <v>0.1637675638538093</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03625063096476417</v>
+        <v>0.03547893380398315</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>908324766.4932132</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2050806330.125019</v>
+        <v>2065440679.630142</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08403076426578444</v>
+        <v>0.1372601881401358</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05196668751978313</v>
+        <v>0.04994193297835754</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>38</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1025403233.815518</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1449517360.692747</v>
+        <v>1546513145.6646</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1178750733754016</v>
+        <v>0.1256337606387085</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04519884220645147</v>
+        <v>0.03610764627221671</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>724758726.0560017</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3640193622.658515</v>
+        <v>4131432663.76113</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1213171460470672</v>
+        <v>0.124145111182062</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02229508454133513</v>
+        <v>0.02046548591085539</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>52</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1820096838.740165</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3203308962.437951</v>
+        <v>3054206340.536977</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08517928263671383</v>
+        <v>0.1000868294189419</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02198787563822529</v>
+        <v>0.02094975992727839</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>42</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1601654479.662162</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2554187086.837844</v>
+        <v>2280987117.233416</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1254210310086654</v>
+        <v>0.1470366520087639</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02578169014185793</v>
+        <v>0.02691199462008817</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>50</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1277093497.020298</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3134411741.569479</v>
+        <v>3877638189.945187</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1740492747907559</v>
+        <v>0.1524873786056761</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01921139167940368</v>
+        <v>0.02390448313257419</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>49</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1567205872.331069</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2595180407.544913</v>
+        <v>2173305055.304293</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1777884263402502</v>
+        <v>0.1700803097211608</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05057410140584725</v>
+        <v>0.03974414531538748</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>66</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1297590239.338485</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_160.xlsx
+++ b/output/fit_clients/fit_round_160.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1576170681.470278</v>
+        <v>1733339860.75688</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1147869635655643</v>
+        <v>0.1132055621802849</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0423937874434341</v>
+        <v>0.04050673274883421</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2092708176.257658</v>
+        <v>2148427124.832638</v>
       </c>
       <c r="F3" t="n">
-        <v>0.140396573075682</v>
+        <v>0.1603183096316828</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03478793407430397</v>
+        <v>0.03628268750187994</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4819224259.490569</v>
+        <v>3468500967.532006</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1344618632917289</v>
+        <v>0.1139149537209046</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03565131480083361</v>
+        <v>0.02370754161919835</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3460519692.999755</v>
+        <v>3607273008.48007</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09959745335366757</v>
+        <v>0.100051426970204</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03862718218807053</v>
+        <v>0.03575310305557046</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2288403581.219308</v>
+        <v>2207240373.47064</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1068051828909887</v>
+        <v>0.108421061618216</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04861300783107052</v>
+        <v>0.03581479929665975</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2845281175.689831</v>
+        <v>2346852393.94253</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09587149725973804</v>
+        <v>0.07411076955033206</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03471721944949061</v>
+        <v>0.02991018282786805</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3875465482.358966</v>
+        <v>3770371518.716796</v>
       </c>
       <c r="F8" t="n">
-        <v>0.18516057851065</v>
+        <v>0.1910654481955756</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02145550706986465</v>
+        <v>0.02119824488977057</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1599459234.80362</v>
+        <v>2162033017.511099</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1210727737983299</v>
+        <v>0.1735428543164687</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03359180903355746</v>
+        <v>0.02451055390559009</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4378973460.544336</v>
+        <v>3815293312.537923</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1328468052290101</v>
+        <v>0.1741380863053879</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03401080344143976</v>
+        <v>0.04309610176196416</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3427141855.388703</v>
+        <v>4178545966.718794</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1461147652671335</v>
+        <v>0.1408012229696838</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0301030861460088</v>
+        <v>0.04311403128854083</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3203395782.363276</v>
+        <v>2097248723.31553</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1694691653774136</v>
+        <v>0.1264000819892285</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04939062311430309</v>
+        <v>0.03355019895224953</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4772072694.240566</v>
+        <v>3346564480.369794</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08025478553592717</v>
+        <v>0.07324531352776464</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01978257852990972</v>
+        <v>0.02181711181715794</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2441691914.877458</v>
+        <v>3097899714.083714</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1651705164303169</v>
+        <v>0.148785639988675</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02687108109324388</v>
+        <v>0.03103596194717933</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1540429732.743462</v>
+        <v>1512790121.528066</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0789897090863545</v>
+        <v>0.09812594267377532</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04420503826062</v>
+        <v>0.04611878705023355</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2466959260.686088</v>
+        <v>1858008094.193476</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1101109810111947</v>
+        <v>0.1042217315319769</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04252849949214751</v>
+        <v>0.03129139439925124</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4844664878.035396</v>
+        <v>4936163944.401849</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1114612828216619</v>
+        <v>0.1100762667169231</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03834102797299269</v>
+        <v>0.04181078567100631</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3157471135.11924</v>
+        <v>3499021615.978223</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1179000058078277</v>
+        <v>0.1493228160662593</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02124529846469598</v>
+        <v>0.02079870521606373</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1208172572.186482</v>
+        <v>871381960.1029987</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1271601728396269</v>
+        <v>0.1324742117916626</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01764889331284852</v>
+        <v>0.02115690411701466</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2325128400.52588</v>
+        <v>2701623661.421154</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1253776814404119</v>
+        <v>0.1422481595663239</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02575905822351791</v>
+        <v>0.0195505023911092</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1769313220.146711</v>
+        <v>1852818071.642324</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09091671482265783</v>
+        <v>0.07100591763164994</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03603840215437921</v>
+        <v>0.04616749649267294</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3070553032.174437</v>
+        <v>2757845304.501163</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08929791506560891</v>
+        <v>0.1214622926881323</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04444044634805777</v>
+        <v>0.04971160542850993</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1326279943.068798</v>
+        <v>1081815989.643819</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1699375789448778</v>
+        <v>0.16772334633341</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0534870264750293</v>
+        <v>0.04636907159691299</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4011399682.539038</v>
+        <v>2759970405.710616</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1013776361854113</v>
+        <v>0.126095511875899</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03336771401231321</v>
+        <v>0.02541690394264096</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1327892568.979276</v>
+        <v>1222430038.529396</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1050367306535882</v>
+        <v>0.1081026729729186</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02610672349930636</v>
+        <v>0.02060825232541132</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1276059261.4458</v>
+        <v>1111772124.914955</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08216920897225562</v>
+        <v>0.1064930974519688</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03869408117889911</v>
+        <v>0.03023007306189524</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4550814969.27242</v>
+        <v>4016236895.191718</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1095483737595661</v>
+        <v>0.1335902461842367</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0206829934435596</v>
+        <v>0.02220708441841686</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2803753333.750941</v>
+        <v>3294049989.926078</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1424024905516155</v>
+        <v>0.1200582329018887</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04119402764505218</v>
+        <v>0.04767269425997877</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3988454016.523715</v>
+        <v>3928922475.76016</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1475270007195065</v>
+        <v>0.1185075328697734</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03419152109348035</v>
+        <v>0.02968775642350039</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2385199650.197162</v>
+        <v>2033789687.196672</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08678749171664571</v>
+        <v>0.1196539479807351</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0398886028242551</v>
+        <v>0.03404054566155473</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1099597811.744382</v>
+        <v>1276372996.906203</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09232734646487643</v>
+        <v>0.08826502938985389</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03370782575935391</v>
+        <v>0.0380760132585764</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1378513996.854651</v>
+        <v>1387411386.749836</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09548586841255302</v>
+        <v>0.1193681640484952</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02422544890575984</v>
+        <v>0.02640936531575277</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1981359472.67182</v>
+        <v>2681698293.431656</v>
       </c>
       <c r="F33" t="n">
-        <v>0.170574557588966</v>
+        <v>0.1643248341481143</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03945742161893106</v>
+        <v>0.0591971616053811</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>971204395.8822783</v>
+        <v>1473836576.250963</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0803303443863552</v>
+        <v>0.1198829921526107</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02147880887646382</v>
+        <v>0.01733170669688</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1228466468.067403</v>
+        <v>915674858.9780258</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09852136492860267</v>
+        <v>0.08087704714120332</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03617111525334486</v>
+        <v>0.04368164770085563</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2583623565.644954</v>
+        <v>2237507880.38095</v>
       </c>
       <c r="F36" t="n">
-        <v>0.109302786631837</v>
+        <v>0.1098685665244223</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02057747174223308</v>
+        <v>0.01793786025493574</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2139272987.362951</v>
+        <v>2657014302.46691</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0741609815741034</v>
+        <v>0.1013971895902693</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02773133282744019</v>
+        <v>0.04012526424815822</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1770288312.989399</v>
+        <v>1401619764.116789</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1036882576092043</v>
+        <v>0.1034193514968692</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03490442717565394</v>
+        <v>0.02760412178997643</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2071154206.19105</v>
+        <v>2009764044.228341</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1873216970870599</v>
+        <v>0.1226975269212654</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02912623051695275</v>
+        <v>0.02152051593336892</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1613034307.753465</v>
+        <v>1611031963.377808</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1138147852018163</v>
+        <v>0.1496549163558091</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05351875585059503</v>
+        <v>0.05526637247053815</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1776213978.05028</v>
+        <v>2549432132.680933</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1362582584789347</v>
+        <v>0.1301348531308984</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04115620114301571</v>
+        <v>0.0307683873974084</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3850241139.071792</v>
+        <v>4110706723.544918</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08296457470915106</v>
+        <v>0.1136571948157527</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04576478840525525</v>
+        <v>0.04505359446737821</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1864688639.923383</v>
+        <v>2673118717.36799</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2010044428046014</v>
+        <v>0.1256579968076319</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02594322110001419</v>
+        <v>0.01694188564400703</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1634855396.099897</v>
+        <v>1653282659.186535</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08546628262716115</v>
+        <v>0.09293636297108825</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03522947278267079</v>
+        <v>0.03216192687259043</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1796304867.514883</v>
+        <v>1860400927.710161</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1282743177902864</v>
+        <v>0.1244461651251987</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04522216121120601</v>
+        <v>0.03892821808526604</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5363564660.828811</v>
+        <v>5658476006.888793</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1431210754315934</v>
+        <v>0.1138479709033959</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05561967420495477</v>
+        <v>0.04761782226220791</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4191724834.709844</v>
+        <v>3203175115.934871</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1637262427220706</v>
+        <v>0.1699068938495248</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03606462530900315</v>
+        <v>0.03914476791754057</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4564787625.526546</v>
+        <v>4206882784.009302</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1088839636171764</v>
+        <v>0.06817920019907113</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0273786497507316</v>
+        <v>0.0284964244759078</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1207202512.485076</v>
+        <v>1610068324.464391</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1728563959195975</v>
+        <v>0.1313003160219725</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03773913275003096</v>
+        <v>0.04016360685825746</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3628012958.548459</v>
+        <v>2845419502.530435</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1515175879622385</v>
+        <v>0.1584062123823979</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04060205567643153</v>
+        <v>0.03388151259308641</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1046788159.271862</v>
+        <v>946922015.0019121</v>
       </c>
       <c r="F51" t="n">
-        <v>0.135477581503637</v>
+        <v>0.1213553567244562</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05392206208672659</v>
+        <v>0.0534237358044109</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4589802703.780692</v>
+        <v>3722390013.135996</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0966087850717523</v>
+        <v>0.1038673116604374</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0427141064651694</v>
+        <v>0.05390241179504164</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2990703770.749495</v>
+        <v>2317954222.859787</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1877260397885658</v>
+        <v>0.1795000140461839</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03031216486279846</v>
+        <v>0.0229945170786039</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4240618160.135713</v>
+        <v>4231411710.390557</v>
       </c>
       <c r="F54" t="n">
-        <v>0.146943674005977</v>
+        <v>0.1462415767227213</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04360643215735065</v>
+        <v>0.04807457881796413</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3446879575.321675</v>
+        <v>3085069074.577822</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1570057797808364</v>
+        <v>0.167557689887137</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02163768254453234</v>
+        <v>0.02916955009223447</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1168956636.823692</v>
+        <v>1500193322.982184</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1033742608537621</v>
+        <v>0.1258516604826015</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05194539981550376</v>
+        <v>0.04672018610369524</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2915429832.451304</v>
+        <v>3340926662.217036</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1381192927040735</v>
+        <v>0.1446582828468433</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02098529813282929</v>
+        <v>0.02743746969843389</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1590719982.66105</v>
+        <v>1841379098.632638</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1518299026939932</v>
+        <v>0.1954759714202096</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02651242472212271</v>
+        <v>0.02896863496138704</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4405047472.468308</v>
+        <v>5124346508.348134</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1085586180003294</v>
+        <v>0.1160243997100501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03557611575055473</v>
+        <v>0.04112417815607973</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3016688561.07625</v>
+        <v>3446159107.296676</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1667809964459517</v>
+        <v>0.195881577965401</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02574860494888744</v>
+        <v>0.02221820425274046</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2196417395.467609</v>
+        <v>2814692680.795581</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1465380691115692</v>
+        <v>0.1311754669228354</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02587911264325514</v>
+        <v>0.02575322375617691</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1742798657.210297</v>
+        <v>1955433276.967774</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1306298006278959</v>
+        <v>0.1850497123096355</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04209528807941149</v>
+        <v>0.04696563373968991</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3920592856.379979</v>
+        <v>4011344469.07207</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07035077185385297</v>
+        <v>0.06859197012933506</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03808796596712555</v>
+        <v>0.04273064841675917</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5017695101.412479</v>
+        <v>4445148750.654588</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1875834260890149</v>
+        <v>0.1645902345739504</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03241817137502493</v>
+        <v>0.02366243947764523</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3785799894.773667</v>
+        <v>5535457838.464154</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1084163365186662</v>
+        <v>0.1396635554266359</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02933087245064201</v>
+        <v>0.02785152534502737</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5563925890.617961</v>
+        <v>4783198416.329455</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1261388146512015</v>
+        <v>0.1503262973866943</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04666813412471701</v>
+        <v>0.04561441790812662</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3312776642.071438</v>
+        <v>2211873758.702988</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08275509517946433</v>
+        <v>0.07770749141145081</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03198376224555715</v>
+        <v>0.03233639547176208</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4461817508.282643</v>
+        <v>5167527150.853185</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1474703924673313</v>
+        <v>0.1603315523596105</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04861606656018899</v>
+        <v>0.03198818700986591</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1602644986.00791</v>
+        <v>2197995087.93567</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1792658609120624</v>
+        <v>0.1710407360799092</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05673042859049428</v>
+        <v>0.05347045828001096</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3126085033.538342</v>
+        <v>2444280828.420884</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08836570765229501</v>
+        <v>0.06488333283263976</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03624147168143207</v>
+        <v>0.04695943571604606</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4167901896.682279</v>
+        <v>4074637892.522275</v>
       </c>
       <c r="F71" t="n">
-        <v>0.131382060219293</v>
+        <v>0.1229390875863361</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02943549698550937</v>
+        <v>0.0260951473442941</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1520585226.894382</v>
+        <v>1530369988.329328</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08538396776091886</v>
+        <v>0.09419156003670755</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04681808359039973</v>
+        <v>0.03759632178397392</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2953668310.094389</v>
+        <v>3467189100.772869</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104131414011443</v>
+        <v>0.07506396061059385</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03474424760811998</v>
+        <v>0.04514447308795286</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3065952442.719719</v>
+        <v>3757362278.098347</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1700200537614601</v>
+        <v>0.1352815290075469</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02464669606916553</v>
+        <v>0.02360826025948921</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2423584220.637874</v>
+        <v>2416571549.760305</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1289047140913516</v>
+        <v>0.163093251131499</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0337492340150455</v>
+        <v>0.02332873653109994</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5309750945.122804</v>
+        <v>4297298054.045571</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08656119068298367</v>
+        <v>0.1098801464588757</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02393909665067104</v>
+        <v>0.02073049244121809</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2271610734.493226</v>
+        <v>2296444423.719961</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1753006078309385</v>
+        <v>0.1645583354306614</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02149355844854486</v>
+        <v>0.02524196111903019</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4449441986.904869</v>
+        <v>3064763559.153329</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08728080558686781</v>
+        <v>0.08624843864580391</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04176428162036866</v>
+        <v>0.03725969950200609</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1833090173.420872</v>
+        <v>1751764109.997003</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1151750747340165</v>
+        <v>0.1436379665910224</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03906573802087215</v>
+        <v>0.03953229154080398</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4785963897.170527</v>
+        <v>5171550696.880497</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08174040217071078</v>
+        <v>0.07323991909199017</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02684857655126464</v>
+        <v>0.02997750929126423</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4080604691.548777</v>
+        <v>4978888464.412294</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1342714194987159</v>
+        <v>0.08377674550201855</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02854363099294668</v>
+        <v>0.02650408860874353</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5450614492.970435</v>
+        <v>3626018184.822835</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1871017665356239</v>
+        <v>0.1678850338373969</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02018559592873491</v>
+        <v>0.02690243704548712</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1937194789.777351</v>
+        <v>2437862602.903036</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1404026019506021</v>
+        <v>0.14269505233211</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03473921557575179</v>
+        <v>0.04179722905589963</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1597493921.899871</v>
+        <v>1991868507.282519</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09701029232958334</v>
+        <v>0.07388684511361068</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04931846649753353</v>
+        <v>0.0436814813817153</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2364978671.002347</v>
+        <v>3319829166.376186</v>
       </c>
       <c r="F85" t="n">
-        <v>0.147397510431475</v>
+        <v>0.1583779266817898</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03485164164864119</v>
+        <v>0.05371820680158338</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2521979720.392467</v>
+        <v>2170882509.031382</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1327735252322521</v>
+        <v>0.1306420457549696</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02376130587382043</v>
+        <v>0.02420782572501224</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1500546602.484908</v>
+        <v>1414851160.859711</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1487453218488377</v>
+        <v>0.1603014068772692</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03381696430007187</v>
+        <v>0.03898311680361721</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3524257773.831532</v>
+        <v>2429467768.392253</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1434620003384905</v>
+        <v>0.1332146562698617</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02801192294406895</v>
+        <v>0.03766100893136858</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2970013608.207947</v>
+        <v>2270288883.015307</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1423967259864555</v>
+        <v>0.119212545793538</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03105865215598662</v>
+        <v>0.03018083085287702</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2088092565.47596</v>
+        <v>1679120483.692985</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09982976429478169</v>
+        <v>0.08709222778934991</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04785391377851826</v>
+        <v>0.04005770384268741</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1679440730.823771</v>
+        <v>1864081356.412211</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1322425817262853</v>
+        <v>0.1251755443929392</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03859786402572853</v>
+        <v>0.05665077273900459</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2730905365.278147</v>
+        <v>2099980617.691299</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07505861362348358</v>
+        <v>0.09023682003503904</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04682664159846391</v>
+        <v>0.04222303074704665</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3749302361.382893</v>
+        <v>3437265227.09395</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1100066223244495</v>
+        <v>0.1241436411126243</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0384474753147455</v>
+        <v>0.03491907781542582</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1774057337.716903</v>
+        <v>2003846927.907438</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1637675638538093</v>
+        <v>0.1300834432072379</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03547893380398315</v>
+        <v>0.03535473889697024</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2065440679.630142</v>
+        <v>3116304140.6903</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1372601881401358</v>
+        <v>0.1321093998803726</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04994193297835754</v>
+        <v>0.04538300278613761</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1546513145.6646</v>
+        <v>2026221183.657801</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1256337606387085</v>
+        <v>0.09061887536044334</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03610764627221671</v>
+        <v>0.04171756072187405</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4131432663.76113</v>
+        <v>3585856444.126932</v>
       </c>
       <c r="F97" t="n">
-        <v>0.124145111182062</v>
+        <v>0.1632851362385911</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02046548591085539</v>
+        <v>0.0206591412705623</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3054206340.536977</v>
+        <v>3543212586.070514</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1000868294189419</v>
+        <v>0.1032890797189586</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02094975992727839</v>
+        <v>0.02501988444393082</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2280987117.233416</v>
+        <v>2568796517.589022</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1470366520087639</v>
+        <v>0.1477252882833393</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02691199462008817</v>
+        <v>0.0352450653613638</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3877638189.945187</v>
+        <v>3961596130.61737</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1524873786056761</v>
+        <v>0.1661536609233025</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02390448313257419</v>
+        <v>0.02754155445154953</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2173305055.304293</v>
+        <v>2374930565.08977</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1700803097211608</v>
+        <v>0.1841924629394466</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03974414531538748</v>
+        <v>0.04900271294685276</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_160.xlsx
+++ b/output/fit_clients/fit_round_160.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1733339860.75688</v>
+        <v>2423500530.399661</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1132055621802849</v>
+        <v>0.1139100058339058</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04050673274883421</v>
+        <v>0.04113530003679314</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2148427124.832638</v>
+        <v>2604676405.394798</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1603183096316828</v>
+        <v>0.1455709481436316</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03628268750187994</v>
+        <v>0.04540985162026337</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3468500967.532006</v>
+        <v>3823652213.836349</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1139149537209046</v>
+        <v>0.136518181913101</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02370754161919835</v>
+        <v>0.03298244083090351</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>90</v>
+      </c>
+      <c r="J4" t="n">
+        <v>159</v>
+      </c>
+      <c r="K4" t="n">
+        <v>108.6911541525058</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3607273008.48007</v>
+        <v>3790799286.786565</v>
       </c>
       <c r="F5" t="n">
-        <v>0.100051426970204</v>
+        <v>0.09761312823445958</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03575310305557046</v>
+        <v>0.04254540834398333</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>66</v>
+      </c>
+      <c r="J5" t="n">
+        <v>160</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2207240373.47064</v>
+        <v>1830419528.743212</v>
       </c>
       <c r="F6" t="n">
-        <v>0.108421061618216</v>
+        <v>0.1444469337878158</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03581479929665975</v>
+        <v>0.04636513994407141</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2346852393.94253</v>
+        <v>3045064877.946178</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07411076955033206</v>
+        <v>0.09557990082482483</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02991018282786805</v>
+        <v>0.03019973155658317</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3770371518.716796</v>
+        <v>2640829239.423018</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1910654481955756</v>
+        <v>0.1948390643701234</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02119824488977057</v>
+        <v>0.02376474039330609</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>159</v>
+      </c>
+      <c r="K8" t="n">
+        <v>52.61830644305052</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2162033017.511099</v>
+        <v>1894320994.886286</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1735428543164687</v>
+        <v>0.1905902922574133</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02451055390559009</v>
+        <v>0.02406682531935009</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3815293312.537923</v>
+        <v>5264723909.789932</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1741380863053879</v>
+        <v>0.1983542795037103</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04309610176196416</v>
+        <v>0.0542594425850327</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>147</v>
+      </c>
+      <c r="J10" t="n">
+        <v>160</v>
+      </c>
+      <c r="K10" t="n">
+        <v>147.1833355242771</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4178545966.718794</v>
+        <v>3378631846.016722</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1408012229696838</v>
+        <v>0.1407891633613119</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04311403128854083</v>
+        <v>0.04085117767510721</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>154</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2097248723.31553</v>
+        <v>2415383982.64774</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1264000819892285</v>
+        <v>0.137533121167855</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03355019895224953</v>
+        <v>0.04540778058991123</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3346564480.369794</v>
+        <v>4752707652.159925</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07324531352776464</v>
+        <v>0.06253466091317388</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02181711181715794</v>
+        <v>0.02952597370116408</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>78</v>
+      </c>
+      <c r="J13" t="n">
+        <v>159</v>
+      </c>
+      <c r="K13" t="n">
+        <v>134.0263626880784</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3097899714.083714</v>
+        <v>3884843344.453856</v>
       </c>
       <c r="F14" t="n">
-        <v>0.148785639988675</v>
+        <v>0.1633252932415873</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03103596194717933</v>
+        <v>0.03804984677693519</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>160</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1512790121.528066</v>
+        <v>1350519288.002475</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09812594267377532</v>
+        <v>0.1029807948156554</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04611878705023355</v>
+        <v>0.04341171176951052</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1858008094.193476</v>
+        <v>1959087465.387648</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1042217315319769</v>
+        <v>0.09021889938149229</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03129139439925124</v>
+        <v>0.03925526443034975</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4936163944.401849</v>
+        <v>5319478332.961412</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1100762667169231</v>
+        <v>0.1642480108922229</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04181078567100631</v>
+        <v>0.03405857963172217</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>77</v>
+      </c>
+      <c r="J17" t="n">
+        <v>160</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3499021615.978223</v>
+        <v>3493587417.372609</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1493228160662593</v>
+        <v>0.1116966208433112</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02079870521606373</v>
+        <v>0.02654143514109398</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>40</v>
+      </c>
+      <c r="J18" t="n">
+        <v>157</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>871381960.1029987</v>
+        <v>1112371038.107331</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1324742117916626</v>
+        <v>0.1742123549279195</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02115690411701466</v>
+        <v>0.01881329638109061</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2701623661.421154</v>
+        <v>1776116589.139466</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1422481595663239</v>
+        <v>0.1567562986520736</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0195505023911092</v>
+        <v>0.02114241252418737</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1852818071.642324</v>
+        <v>2516705955.636436</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07100591763164994</v>
+        <v>0.09008802604576442</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04616749649267294</v>
+        <v>0.04589970708874005</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1209,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2757845304.501163</v>
+        <v>3676923668.766594</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1214622926881323</v>
+        <v>0.1406373129180171</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04971160542850993</v>
+        <v>0.04138068639573064</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>41</v>
+      </c>
+      <c r="J22" t="n">
+        <v>159</v>
+      </c>
+      <c r="K22" t="n">
+        <v>92.91589950361644</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1081815989.643819</v>
+        <v>1524810891.617907</v>
       </c>
       <c r="F23" t="n">
-        <v>0.16772334633341</v>
+        <v>0.1202887225364224</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04636907159691299</v>
+        <v>0.05230611286861873</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2759970405.710616</v>
+        <v>2810254468.154052</v>
       </c>
       <c r="F24" t="n">
-        <v>0.126095511875899</v>
+        <v>0.146863044625646</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02541690394264096</v>
+        <v>0.03243726288260962</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>48</v>
+      </c>
+      <c r="J24" t="n">
+        <v>159</v>
+      </c>
+      <c r="K24" t="n">
+        <v>53.90793036134421</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1222430038.529396</v>
+        <v>974729789.6880065</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1081026729729186</v>
+        <v>0.07835229093620504</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02060825232541132</v>
+        <v>0.02231277712666668</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1111772124.914955</v>
+        <v>877156528.240839</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1064930974519688</v>
+        <v>0.1039700234072697</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03023007306189524</v>
+        <v>0.02362493718016778</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1388,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4016236895.191718</v>
+        <v>4262851944.979037</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1335902461842367</v>
+        <v>0.1542413623240065</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02220708441841686</v>
+        <v>0.01858481373841764</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>63</v>
+      </c>
+      <c r="J27" t="n">
+        <v>159</v>
+      </c>
+      <c r="K27" t="n">
+        <v>114.2653602079874</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3294049989.926078</v>
+        <v>2698880765.104271</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1200582329018887</v>
+        <v>0.1227735108339825</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04767269425997877</v>
+        <v>0.0496129336064626</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>156</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3928922475.76016</v>
+        <v>4228151486.226765</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1185075328697734</v>
+        <v>0.1221308124293606</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02968775642350039</v>
+        <v>0.03855111245639108</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>149</v>
+      </c>
+      <c r="J29" t="n">
+        <v>160</v>
+      </c>
+      <c r="K29" t="n">
+        <v>156.1539424651445</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2033789687.196672</v>
+        <v>2344623914.736688</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1196539479807351</v>
+        <v>0.1019758558198054</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03404054566155473</v>
+        <v>0.02901299841672331</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1276372996.906203</v>
+        <v>1497552352.316258</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08826502938985389</v>
+        <v>0.1098316291040934</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0380760132585764</v>
+        <v>0.03449707817449368</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1567,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1387411386.749836</v>
+        <v>1735327456.014538</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1193681640484952</v>
+        <v>0.07289438614828916</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02640936531575277</v>
+        <v>0.03671291889686505</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2681698293.431656</v>
+        <v>2225579727.548542</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1643248341481143</v>
+        <v>0.143841484179976</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0591971616053811</v>
+        <v>0.05753919940737962</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1637,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1473836576.250963</v>
+        <v>1103942025.737901</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1198829921526107</v>
+        <v>0.09395871706393012</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01733170669688</v>
+        <v>0.02097522324751994</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>915674858.9780258</v>
+        <v>1143278166.170524</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08087704714120332</v>
+        <v>0.09161394380357864</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04368164770085563</v>
+        <v>0.03097571529078498</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2237507880.38095</v>
+        <v>3204859956.666436</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1098685665244223</v>
+        <v>0.1763952578439445</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01793786025493574</v>
+        <v>0.02743853964408026</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2657014302.46691</v>
+        <v>2861142635.271257</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1013971895902693</v>
+        <v>0.09107308108936579</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04012526424815822</v>
+        <v>0.02857914939939596</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1401619764.116789</v>
+        <v>1637545855.957731</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1034193514968692</v>
+        <v>0.07416698641535474</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02760412178997643</v>
+        <v>0.03732259607430665</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2009764044.228341</v>
+        <v>1495223307.754851</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1226975269212654</v>
+        <v>0.1407624956361615</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02152051593336892</v>
+        <v>0.02694429414688681</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1611031963.377808</v>
+        <v>1363377946.65098</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1496549163558091</v>
+        <v>0.1010765725901356</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05526637247053815</v>
+        <v>0.05435291033080036</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2549432132.680933</v>
+        <v>1950614557.792967</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1301348531308984</v>
+        <v>0.103673997842731</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0307683873974084</v>
+        <v>0.04612479925596641</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4110706723.544918</v>
+        <v>4071257112.745223</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1136571948157527</v>
+        <v>0.1258301265826218</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04505359446737821</v>
+        <v>0.0310934390174199</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>59</v>
+      </c>
+      <c r="J42" t="n">
+        <v>160</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2673118717.36799</v>
+        <v>2630596241.72665</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1256579968076319</v>
+        <v>0.1808327125951417</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01694188564400703</v>
+        <v>0.01827008938307266</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1653282659.186535</v>
+        <v>2247441632.537148</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09293636297108825</v>
+        <v>0.08607492501305326</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03216192687259043</v>
+        <v>0.02805712372354861</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1860400927.710161</v>
+        <v>2518259781.241547</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1244461651251987</v>
+        <v>0.1313614732009289</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03892821808526604</v>
+        <v>0.04147860922625938</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5658476006.888793</v>
+        <v>4537803145.507509</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1138479709033959</v>
+        <v>0.1255884704428487</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04761782226220791</v>
+        <v>0.04601678217430473</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>90</v>
+      </c>
+      <c r="J46" t="n">
+        <v>160</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3203175115.934871</v>
+        <v>4852700151.291746</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1699068938495248</v>
+        <v>0.2029843342380747</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03914476791754057</v>
+        <v>0.03604636647509776</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>71</v>
+      </c>
+      <c r="J47" t="n">
+        <v>159</v>
+      </c>
+      <c r="K47" t="n">
+        <v>110.5616364928983</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4206882784.009302</v>
+        <v>2881397522.487915</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06817920019907113</v>
+        <v>0.1014143308646397</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0284964244759078</v>
+        <v>0.0322232195118196</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>72</v>
+      </c>
+      <c r="J48" t="n">
+        <v>159</v>
+      </c>
+      <c r="K48" t="n">
+        <v>64.02889999728504</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1610068324.464391</v>
+        <v>1267867618.024698</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1313003160219725</v>
+        <v>0.1367267695991419</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04016360685825746</v>
+        <v>0.02756889204590344</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2201,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2845419502.530435</v>
+        <v>3756502158.228501</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1584062123823979</v>
+        <v>0.1581116694167907</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03388151259308641</v>
+        <v>0.03313235212622268</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>53</v>
+      </c>
+      <c r="J50" t="n">
+        <v>159</v>
+      </c>
+      <c r="K50" t="n">
+        <v>105.9070584710934</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>946922015.0019121</v>
+        <v>1493683388.011164</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1213553567244562</v>
+        <v>0.1420495193552839</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0534237358044109</v>
+        <v>0.04031002224606359</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2267,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3722390013.135996</v>
+        <v>3491095024.537082</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1038673116604374</v>
+        <v>0.1321969950115986</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05390241179504164</v>
+        <v>0.04412656563553666</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>116</v>
+      </c>
+      <c r="J52" t="n">
+        <v>159</v>
+      </c>
+      <c r="K52" t="n">
+        <v>92.19211513761699</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2317954222.859787</v>
+        <v>3203760756.294377</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1795000140461839</v>
+        <v>0.1327088038548526</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0229945170786039</v>
+        <v>0.03068356742969669</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>151</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2339,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4231411710.390557</v>
+        <v>3424786706.029058</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1462415767227213</v>
+        <v>0.1458742045575201</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04807457881796413</v>
+        <v>0.0338866336353253</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>78</v>
+      </c>
+      <c r="J54" t="n">
+        <v>159</v>
+      </c>
+      <c r="K54" t="n">
+        <v>90.72239275507047</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2382,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3085069074.577822</v>
+        <v>4646617090.58978</v>
       </c>
       <c r="F55" t="n">
-        <v>0.167557689887137</v>
+        <v>0.1767499957463082</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02916955009223447</v>
+        <v>0.03184041238628403</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>73</v>
+      </c>
+      <c r="J55" t="n">
+        <v>159</v>
+      </c>
+      <c r="K55" t="n">
+        <v>128.6241483343782</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2413,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1500193322.982184</v>
+        <v>1882162377.53568</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1258516604826015</v>
+        <v>0.1337452830333708</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04672018610369524</v>
+        <v>0.04140734789843254</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2448,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3340926662.217036</v>
+        <v>4321598538.845581</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1446582828468433</v>
+        <v>0.18387779691694</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02743746969843389</v>
+        <v>0.02469645735247388</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>65</v>
+      </c>
+      <c r="J57" t="n">
+        <v>160</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2483,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1841379098.632638</v>
+        <v>1598871692.983073</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1954759714202096</v>
+        <v>0.1409041064338074</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02896863496138704</v>
+        <v>0.02859934403875621</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2518,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5124346508.348134</v>
+        <v>3286857476.300606</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1160243997100501</v>
+        <v>0.1229041138486206</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04112417815607973</v>
+        <v>0.03384207394734598</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>77</v>
+      </c>
+      <c r="J59" t="n">
+        <v>158</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3446159107.296676</v>
+        <v>3709382882.163485</v>
       </c>
       <c r="F60" t="n">
-        <v>0.195881577965401</v>
+        <v>0.1723164949257907</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02221820425274046</v>
+        <v>0.02964449888705254</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>160</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2594,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2814692680.795581</v>
+        <v>2960029170.033131</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1311754669228354</v>
+        <v>0.1668617231895733</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02575322375617691</v>
+        <v>0.03003212952883784</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1955433276.967774</v>
+        <v>1427019990.872664</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1850497123096355</v>
+        <v>0.1373448451785935</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04696563373968991</v>
+        <v>0.03327868320788802</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2658,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4011344469.07207</v>
+        <v>4091396610.774738</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06859197012933506</v>
+        <v>0.07701133475168545</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04273064841675917</v>
+        <v>0.03813256901035126</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>78</v>
+      </c>
+      <c r="J63" t="n">
+        <v>160</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4445148750.654588</v>
+        <v>3416455193.677742</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1645902345739504</v>
+        <v>0.1812214408472533</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02366243947764523</v>
+        <v>0.03432156626440595</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>79</v>
+      </c>
+      <c r="J64" t="n">
+        <v>158</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5535457838.464154</v>
+        <v>5236052674.315795</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1396635554266359</v>
+        <v>0.1732288126876853</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02785152534502737</v>
+        <v>0.02046222415707116</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>132</v>
+      </c>
+      <c r="J65" t="n">
+        <v>160</v>
+      </c>
+      <c r="K65" t="n">
+        <v>137.309475536045</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2765,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4783198416.329455</v>
+        <v>4426752689.892707</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1503262973866943</v>
+        <v>0.1393499327537329</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04561441790812662</v>
+        <v>0.03188349699701223</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>79</v>
+      </c>
+      <c r="J66" t="n">
+        <v>159</v>
+      </c>
+      <c r="K66" t="n">
+        <v>124.4234060823583</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2211873758.702988</v>
+        <v>3312785919.756604</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07770749141145081</v>
+        <v>0.09621553504941907</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03233639547176208</v>
+        <v>0.04424116795578955</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2837,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5167527150.853185</v>
+        <v>3801433740.668353</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1603315523596105</v>
+        <v>0.1569051090022605</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03198818700986591</v>
+        <v>0.04036037589855209</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>80</v>
+      </c>
+      <c r="J68" t="n">
+        <v>160</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2197995087.93567</v>
+        <v>2247124534.399464</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1710407360799092</v>
+        <v>0.1404256062281524</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05347045828001096</v>
+        <v>0.0515770181894561</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2444280828.420884</v>
+        <v>2581119042.289587</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06488333283263976</v>
+        <v>0.07358062219106314</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04695943571604606</v>
+        <v>0.03128931546339849</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>22</v>
+      </c>
+      <c r="J70" t="n">
+        <v>158</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2948,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4074637892.522275</v>
+        <v>5469389203.576648</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1229390875863361</v>
+        <v>0.1379805948591989</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0260951473442941</v>
+        <v>0.02138534629327236</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>125</v>
+      </c>
+      <c r="J71" t="n">
+        <v>160</v>
+      </c>
+      <c r="K71" t="n">
+        <v>137.8071443613332</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2985,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1530369988.329328</v>
+        <v>1497438083.776995</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09419156003670755</v>
+        <v>0.07643935868970053</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03759632178397392</v>
+        <v>0.04536293417655748</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3467189100.772869</v>
+        <v>3273561777.457892</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07506396061059385</v>
+        <v>0.08102283012242358</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04514447308795286</v>
+        <v>0.04316772872869992</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3757362278.098347</v>
+        <v>2423411161.651322</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1352815290075469</v>
+        <v>0.1386001603713436</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02360826025948921</v>
+        <v>0.02707396079116072</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>48</v>
+      </c>
+      <c r="J74" t="n">
+        <v>157</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2416571549.760305</v>
+        <v>1612348396.051033</v>
       </c>
       <c r="F75" t="n">
-        <v>0.163093251131499</v>
+        <v>0.1016681294920427</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02332873653109994</v>
+        <v>0.03679829253056864</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4297298054.045571</v>
+        <v>5014148529.197765</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1098801464588757</v>
+        <v>0.09064519634902</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02073049244121809</v>
+        <v>0.02492782419702454</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>73</v>
+      </c>
+      <c r="J76" t="n">
+        <v>160</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2296444423.719961</v>
+        <v>2218147924.736907</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1645583354306614</v>
+        <v>0.1624979391335176</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02524196111903019</v>
+        <v>0.02253697542359004</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3064763559.153329</v>
+        <v>4231598335.025241</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08624843864580391</v>
+        <v>0.1171562938635755</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03725969950200609</v>
+        <v>0.03734126696050841</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>81</v>
+      </c>
+      <c r="J78" t="n">
+        <v>160</v>
+      </c>
+      <c r="K78" t="n">
+        <v>139.0708365077993</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1751764109.997003</v>
+        <v>1575400176.834544</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1436379665910224</v>
+        <v>0.1199036519878494</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03953229154080398</v>
+        <v>0.03287987184369322</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3267,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5171550696.880497</v>
+        <v>3585302389.534387</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07323991909199017</v>
+        <v>0.08925624566905953</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02997750929126423</v>
+        <v>0.03853635427458534</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>78</v>
+      </c>
+      <c r="J80" t="n">
+        <v>159</v>
+      </c>
+      <c r="K80" t="n">
+        <v>71.94734746361858</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4978888464.412294</v>
+        <v>4032452273.373745</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08377674550201855</v>
+        <v>0.09111091371942251</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02650408860874353</v>
+        <v>0.02660915938936654</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>73</v>
+      </c>
+      <c r="J81" t="n">
+        <v>160</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3626018184.822835</v>
+        <v>5248101249.541582</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1678850338373969</v>
+        <v>0.1443261622248379</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02690243704548712</v>
+        <v>0.02612995577680807</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>116</v>
+      </c>
+      <c r="J82" t="n">
+        <v>160</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2437862602.903036</v>
+        <v>2205098867.918973</v>
       </c>
       <c r="F83" t="n">
-        <v>0.14269505233211</v>
+        <v>0.1227554663217283</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04179722905589963</v>
+        <v>0.04025998411554523</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1991868507.282519</v>
+        <v>2551194891.638483</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07388684511361068</v>
+        <v>0.11363954791056</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0436814813817153</v>
+        <v>0.04801691103297195</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3319829166.376186</v>
+        <v>2285260791.658425</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1583779266817898</v>
+        <v>0.1225309999093301</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05371820680158338</v>
+        <v>0.03809557404303899</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2170882509.031382</v>
+        <v>2278148198.776443</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1306420457549696</v>
+        <v>0.1561184187254093</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02420782572501224</v>
+        <v>0.02280338840136827</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1414851160.859711</v>
+        <v>1379068592.369304</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1603014068772692</v>
+        <v>0.1184449504669896</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03898311680361721</v>
+        <v>0.03865445023585568</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2429467768.392253</v>
+        <v>2529070138.736485</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1332146562698617</v>
+        <v>0.160716139796536</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03766100893136858</v>
+        <v>0.03223256501682505</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2270288883.015307</v>
+        <v>2227508698.038357</v>
       </c>
       <c r="F89" t="n">
-        <v>0.119212545793538</v>
+        <v>0.1477541422558513</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03018083085287702</v>
+        <v>0.02914341799137823</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1679120483.692985</v>
+        <v>1651209249.888291</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08709222778934991</v>
+        <v>0.109381999300352</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04005770384268741</v>
+        <v>0.0469907729253305</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1864081356.412211</v>
+        <v>1417694302.357014</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1251755443929392</v>
+        <v>0.1705473174430322</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05665077273900459</v>
+        <v>0.03733068896643595</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2099980617.691299</v>
+        <v>2959902124.62836</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09023682003503904</v>
+        <v>0.08175355381741578</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04222303074704665</v>
+        <v>0.0333538010432804</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3437265227.09395</v>
+        <v>4975890762.646786</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1241436411126243</v>
+        <v>0.1378825438514611</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03491907781542582</v>
+        <v>0.03505609392427291</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>71</v>
+      </c>
+      <c r="J93" t="n">
+        <v>160</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2003846927.907438</v>
+        <v>1769633826.962904</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1300834432072379</v>
+        <v>0.1170002848003654</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03535473889697024</v>
+        <v>0.03804957771844967</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3116304140.6903</v>
+        <v>2313760385.191184</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1321093998803726</v>
+        <v>0.09184509047752781</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04538300278613761</v>
+        <v>0.03758726630778532</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2026221183.657801</v>
+        <v>1875810046.749662</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09061887536044334</v>
+        <v>0.1126052432423787</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04171756072187405</v>
+        <v>0.02984316548010963</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3585856444.126932</v>
+        <v>5311342553.235994</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1632851362385911</v>
+        <v>0.1708461613701239</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0206591412705623</v>
+        <v>0.02519604059951585</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>77</v>
+      </c>
+      <c r="J97" t="n">
+        <v>159</v>
+      </c>
+      <c r="K97" t="n">
+        <v>132.3635610839131</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3543212586.070514</v>
+        <v>3679979452.140207</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1032890797189586</v>
+        <v>0.0850052039712479</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02501988444393082</v>
+        <v>0.02720934554940916</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>37</v>
+      </c>
+      <c r="J98" t="n">
+        <v>160</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2568796517.589022</v>
+        <v>2687076207.147327</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1477252882833393</v>
+        <v>0.137301168490416</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0352450653613638</v>
+        <v>0.02539875617708109</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3961596130.61737</v>
+        <v>3798145052.694181</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1661536609233025</v>
+        <v>0.156566614452867</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02754155445154953</v>
+        <v>0.02354614538613721</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>66</v>
+      </c>
+      <c r="J100" t="n">
+        <v>160</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2374930565.08977</v>
+        <v>3561791963.384945</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1841924629394466</v>
+        <v>0.2145454479684419</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04900271294685276</v>
+        <v>0.05745749728389495</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>13</v>
+      </c>
+      <c r="J101" t="n">
+        <v>158</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
